--- a/tensorflow/all_floors_experiment/TrainingComparison.xlsx
+++ b/tensorflow/all_floors_experiment/TrainingComparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\all_floors_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\all_floors_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00309201-2EAE-43C4-AE7D-0315EBF13970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC99CE10-EF64-4581-AF91-875A1A2B2444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="8865" windowWidth="22590" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="1995" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Model</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>x20</t>
+  </si>
+  <si>
+    <t>Window top and bottom</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -520,20 +523,40 @@
         <v>5.3377000000000003E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="2"/>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G3" s="9">
+        <v>60</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4.6202E-4</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6.5262000000000002E-4</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">

--- a/tensorflow/all_floors_experiment/TrainingComparison.xlsx
+++ b/tensorflow/all_floors_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\all_floors_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC99CE10-EF64-4581-AF91-875A1A2B2444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC98034-C818-4601-8F73-861694C5908A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="1995" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="1860" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
